--- a/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_3/out_of_sample/additive/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_3/out_of_sample/additive/ranking_test2/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.213</v>
+        <v>0.592</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.369</v>
+        <v>16.279</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.295</v>
+        <v>0.654</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.585</v>
+        <v>16.527</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.301</v>
+        <v>0.901</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.613</v>
+        <v>8.497</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>14.85159149924703</v>
+        <v>14.31215673907121</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>26.24990621253759</v>
+        <v>11.15110397746437</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>29.42657073212925</v>
+        <v>13.91103939820419</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>13.36209739758609</v>
+        <v>0.904279375853374</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>25.2122649447354</v>
+        <v>7.159819098365372</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>28.60115857962176</v>
+        <v>8.602484943059263</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>17.68802286204064</v>
+        <v>0.5221111088007113</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>28.64764155511192</v>
+        <v>17.54433993619599</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>31.78852116825885</v>
+        <v>20.0291516754086</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>31.70075656978801</v>
+        <v>6.985720800566238</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>35.93789017553186</v>
+        <v>12.35313320794171</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>37.4410290587896</v>
+        <v>14.70837616509544</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>24.31671640121764</v>
+        <v>7.992512272198095</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>34.9516727891794</v>
+        <v>-0.3493467558574856</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>37.99360757294441</v>
+        <v>7.604917001713996</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>17.72733024396022</v>
+        <v>14.8169541303138</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>29.22290960907633</v>
+        <v>15.12175924875961</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>32.45267080039213</v>
+        <v>19.3314020563005</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>16.12252692270022</v>
+        <v>1.194977522157725</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>28.08067639757072</v>
+        <v>1.818759632410544</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>31.52415357098671</v>
+        <v>7.273771641571269</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>20.48584338431708</v>
+        <v>-4.926288497721206</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>31.54450268625747</v>
+        <v>11.21862063605274</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>14.85161112806143</v>
+        <v>13.52384511065778</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>26.2499416468584</v>
+        <v>20.26456211024182</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>29.42661216993287</v>
+        <v>20.5661463262106</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>13.36212262401351</v>
+        <v>3.051107033572801</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>25.21230669890199</v>
+        <v>24.4625710401672</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>28.60120673931766</v>
+        <v>24.39011783871137</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>17.68805190284527</v>
+        <v>4.737729350817059</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>28.64768589835538</v>
+        <v>35.83984967680422</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>31.78857146892716</v>
+        <v>36.1458874805673</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>31.70080338451503</v>
+        <v>34.53354098325812</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>35.93794238802856</v>
+        <v>38.00265770069004</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>37.44108412258625</v>
+        <v>38.74779860410209</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>24.3167527177526</v>
+        <v>17.0182456641582</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>34.95172419933046</v>
+        <v>28.83385697733334</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>37.99366467696177</v>
+        <v>31.25202619826342</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>17.72735456678965</v>
+        <v>14.60484146677848</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>29.22294984936695</v>
+        <v>25.62512717483298</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>32.45271712901847</v>
+        <v>28.61688012858914</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>16.12255666995499</v>
+        <v>4.96301810423358</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>28.08072279907622</v>
+        <v>21.66239045745857</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>31.52420646431237</v>
+        <v>26.97608324955456</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>31.54455173611834</v>
+        <v>33.61574936841367</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>14.85217449109761</v>
+        <v>8.401919755084915</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>26.25049634887364</v>
+        <v>16.12237511239877</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>29.4271617982318</v>
+        <v>18.61724777199924</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>13.36270105624265</v>
+        <v>0.2233987091171592</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>25.21287609766961</v>
+        <v>22.88734098586917</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>28.60177071213146</v>
+        <v>25.65737507772016</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>17.68862705171406</v>
+        <v>2.541159292007901</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>28.64825272730967</v>
+        <v>35.20560256821099</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>31.78913326870206</v>
+        <v>38.04276043979596</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>31.70137134443036</v>
+        <v>34.01357524791177</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>35.93850635811651</v>
+        <v>36.6792307733044</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>37.44164571008275</v>
+        <v>39.96134787836036</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>24.31732476760994</v>
+        <v>9.977358235689049</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>34.95228811324392</v>
+        <v>25.67952844138162</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>37.99422362861904</v>
+        <v>30.13876414526038</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>17.72791940218156</v>
+        <v>8.662531799644594</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>29.22350593619311</v>
+        <v>20.68738733714627</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>32.45326811047699</v>
+        <v>26.38260321946168</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>16.12313689089473</v>
+        <v>0.9777546682159617</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>28.0812938878986</v>
+        <v>18.98276921044797</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>31.52477209656898</v>
+        <v>27.69563795312385</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>20.48645394705139</v>
+        <v>-0.6239128384252446</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>31.54512025592443</v>
+        <v>32.29213129016435</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>14.85235787880752</v>
+        <v>6.323293920821893</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>26.2506923439523</v>
+        <v>12.68339868404922</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>29.42735870207753</v>
+        <v>17.84676922638513</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>13.36287998709398</v>
+        <v>2.587890316747743</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>25.21306802081337</v>
+        <v>20.91409681593805</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>28.60196358972662</v>
+        <v>26.80547688901373</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>17.68881296421787</v>
+        <v>2.007163525022886</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>28.64845064908684</v>
+        <v>31.02168027569374</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>31.78933205423237</v>
+        <v>36.84730277036559</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>31.7015757506133</v>
+        <v>22.56306609241645</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>35.9387156419041</v>
+        <v>27.4380579603364</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>37.4418554434126</v>
+        <v>35.35330837986257</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>24.31752081415147</v>
+        <v>7.96736410089451</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>34.95249550159694</v>
+        <v>18.61816388020005</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>37.99443191889928</v>
+        <v>29.22291295561589</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>17.72810634443331</v>
+        <v>7.88222726318045</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>29.22370562009526</v>
+        <v>18.27365170043424</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>32.45346875002534</v>
+        <v>26.24996484288519</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>16.12331934721466</v>
+        <v>3.296486208618429</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>28.08148948158303</v>
+        <v>16.51858760529441</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>31.5249686949296</v>
+        <v>27.87260101254912</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>20.48664341593949</v>
+        <v>-1.718067757008757</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>31.54532186747369</v>
+        <v>27.06837339087377</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>34.73591449815044</v>
+        <v>20.43344468173018</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>34.77103773743796</v>
+        <v>5.67048684339451</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>39.06516793006215</v>
+        <v>15.88328316312996</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>40.60119040285828</v>
+        <v>21.95935218412003</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>27.36908311946298</v>
+        <v>4.811470942740836</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>38.1177413693816</v>
+        <v>7.835657764159944</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>41.20096064572125</v>
+        <v>14.8313409043773</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>24.82250031061605</v>
+        <v>14.93161526717068</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>36.31602626685498</v>
+        <v>17.69367074718096</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>39.55002127975377</v>
+        <v>24.8635227957543</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>23.60381999978769</v>
+        <v>-1.05232345800653</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>35.5633006167071</v>
+        <v>4.331053258445419</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>39.0129437361931</v>
+        <v>11.26958502561234</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>27.92626687356919</v>
+        <v>-4.494408063660334</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>38.98705101429903</v>
+        <v>18.27810098039791</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>42.18315302345984</v>
+        <v>30.6168430014066</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>42.38414130962018</v>
+        <v>20.63014898701121</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>46.66678224594494</v>
+        <v>31.4679938646062</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>48.20574153540649</v>
+        <v>39.78260611079904</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>34.97065058426273</v>
+        <v>5.228752562683095</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>45.71372465417298</v>
+        <v>14.90104008766025</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>48.79981722793188</v>
+        <v>27.46719694773611</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>34.73596958544542</v>
+        <v>42.01614908877215</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>34.77108929631286</v>
+        <v>36.28852970835419</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>39.06522495419453</v>
+        <v>43.52162617172064</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>40.60125033275561</v>
+        <v>48.49471547478612</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>27.36912421690173</v>
+        <v>17.95768323133157</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>38.11779769159865</v>
+        <v>42.16702969473147</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>41.20102272933896</v>
+        <v>44.87068956377144</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>24.8225404781613</v>
+        <v>20.80907573313032</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>36.31608238614896</v>
+        <v>35.75800473956062</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>39.55008344411991</v>
+        <v>40.09701582675183</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>23.60386601248168</v>
+        <v>10.0759007937284</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>35.56336332565433</v>
+        <v>33.34849499799091</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>39.01301289075665</v>
+        <v>38.55436942186986</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>27.92631677789979</v>
+        <v>9.936713821313756</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>38.98711637553639</v>
+        <v>49.52001047045991</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>42.18322437915752</v>
+        <v>59.15877203254126</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>42.38420945502743</v>
+        <v>62.02499080280296</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>46.66685584517467</v>
+        <v>69.22944880234292</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>48.20581802417226</v>
+        <v>75.35288700319552</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>34.97070816454923</v>
+        <v>27.92852484737028</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>45.71379748375385</v>
+        <v>60.46216481405875</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>48.7998957814134</v>
+        <v>67.13882099243133</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>34.73653304795383</v>
+        <v>43.77565436492782</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>34.7716588058959</v>
+        <v>33.89992023416224</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>39.06579040580054</v>
+        <v>40.18588991380187</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>40.60181336725901</v>
+        <v>48.18050987568543</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>27.3696978250368</v>
+        <v>10.40294707906952</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>38.11836305519523</v>
+        <v>38.731272981497</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>41.20158310720647</v>
+        <v>43.91473736947501</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>24.82309449917283</v>
+        <v>15.65886967608332</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>36.31662763742116</v>
+        <v>32.20970857018179</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>39.55062356538554</v>
+        <v>38.93918187321566</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>23.604434885284</v>
+        <v>7.196939856022507</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>35.56392303968157</v>
+        <v>32.49567282246306</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>39.01356711968226</v>
+        <v>40.7479478224935</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>27.9268824245456</v>
+        <v>8.078625562591323</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>38.98767358502559</v>
+        <v>49.92003033501771</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>42.183776506808</v>
+        <v>62.25985235211274</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>42.38476735615799</v>
+        <v>62.17841111120097</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>46.66740969684283</v>
+        <v>68.3803945369967</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>48.20636944372824</v>
+        <v>77.35145129437493</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>34.97127022871157</v>
+        <v>21.98661217079572</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>45.71435128762502</v>
+        <v>59.38393873132699</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>48.80044458054557</v>
+        <v>68.30273751428737</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>34.73673556958679</v>
+        <v>41.14338023803847</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>34.7718672749602</v>
+        <v>19.42929065730013</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>39.06600381945999</v>
+        <v>28.88908101233531</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>40.60202725345985</v>
+        <v>41.58794209212286</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>27.3698978426458</v>
+        <v>6.892648978117361</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>38.11857456746698</v>
+        <v>30.11564645271207</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>41.20179555758106</v>
+        <v>40.8935022507317</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>24.82328172187129</v>
+        <v>15.54227375955514</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>36.31682755457425</v>
+        <v>30.21431557822188</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>39.55082449166549</v>
+        <v>40.47269021883164</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>23.60461810898726</v>
+        <v>9.666010274575282</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>35.5641193539294</v>
+        <v>29.85106958405356</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>39.01376449971002</v>
+        <v>41.90312589778699</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>27.92707255659419</v>
+        <v>7.29037049844106</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>38.98787581848776</v>
+        <v>44.66716141575185</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>42.18397970501253</v>
+        <v>60.99972689347368</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>42.38497655638892</v>
+        <v>47.79133952668676</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>46.66762382617588</v>
+        <v>57.89744112120903</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>48.20658406749145</v>
+        <v>72.72715334633037</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>34.97147107468049</v>
+        <v>17.3239780677458</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>45.71456358101914</v>
+        <v>49.36722209058351</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>48.80065785700872</v>
+        <v>65.29561175505845</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>8.32182102829786</v>
+        <v>18.7248029940132</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>19.64696495127187</v>
+        <v>28.25715467011292</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>22.75797323411991</v>
+        <v>31.78326614363612</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>6.93290050927704</v>
+        <v>8.527556367231195</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>18.70602346988131</v>
+        <v>28.79023112900932</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>22.02609012110375</v>
+        <v>29.68211810132672</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>11.16583643152619</v>
+        <v>12.63808184610934</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>22.05564753211055</v>
+        <v>45.6030095417332</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>25.13250120860521</v>
+        <v>47.36856059576229</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>25.09406749296708</v>
+        <v>33.44998388291827</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>29.28801895153225</v>
+        <v>42.19507463951606</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>30.75900302712111</v>
+        <v>41.67886628648552</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>17.81500230833442</v>
+        <v>20.50799935547417</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>28.38072808262167</v>
+        <v>26.6097319238969</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>31.36340319431029</v>
+        <v>34.28653635560426</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>10.96198953542583</v>
+        <v>20.46026705409102</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>22.38260193933222</v>
+        <v>32.18695772323872</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>25.54550627518436</v>
+        <v>35.18866435229924</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>9.454664128846337</v>
+        <v>7.873082441723707</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>21.33374235373837</v>
+        <v>21.69221231196542</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>24.7071355422999</v>
+        <v>24.74122032454616</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>13.72445967067092</v>
+        <v>7.308949548518424</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>24.7114007272368</v>
+        <v>38.08034272444146</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>8.321828150653761</v>
+        <v>16.63990072342619</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>19.64698772027663</v>
+        <v>36.00920250623378</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>22.75800188238897</v>
+        <v>36.58015064645099</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>6.932913241301733</v>
+        <v>9.042091195263449</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>18.70605256001569</v>
+        <v>44.32341319264214</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>22.02612548648148</v>
+        <v>43.05507296819113</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>11.16585284215724</v>
+        <v>14.83708099767687</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>22.05567909034383</v>
+        <v>61.69966390635028</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>25.13253860270812</v>
+        <v>60.76433972577951</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>25.09410156776531</v>
+        <v>58.62446733638333</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>29.2880583595867</v>
+        <v>65.41869760076514</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>30.75904521274115</v>
+        <v>63.00280353429716</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>17.815026048645</v>
+        <v>27.25970826768525</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>28.38076677319404</v>
+        <v>53.36341771033995</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>31.36344745815435</v>
+        <v>54.96796665332835</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>10.96200118229849</v>
+        <v>19.7411460077603</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>22.3826293429709</v>
+        <v>42.09470654301569</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>25.54553964258138</v>
+        <v>43.32691301698887</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>9.454681207006569</v>
+        <v>10.7287766901903</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>21.33377591433692</v>
+        <v>40.47441050163079</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>24.70717546416353</v>
+        <v>42.6602304354806</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>13.72448049734128</v>
+        <v>13.20239312682008</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>24.71143681528355</v>
+        <v>58.9155192303235</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>8.322388918437339</v>
+        <v>10.33274631789291</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>19.64753985855261</v>
+        <v>30.5724746301787</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>22.75854904704774</v>
+        <v>33.19703749034804</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>6.933488783081991</v>
+        <v>4.844761853949105</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>18.70661910091216</v>
+        <v>41.29680962921429</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>22.02668670883789</v>
+        <v>42.6748736087828</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>11.16642512775474</v>
+        <v>11.13726153900611</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>22.05624308507188</v>
+        <v>59.4121528933718</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>25.13309766785468</v>
+        <v>60.86666135755954</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>25.0946665837446</v>
+        <v>56.70025243048573</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>29.28861942572153</v>
+        <v>62.74518888147165</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>30.75960395232441</v>
+        <v>62.6887762722757</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>17.81559509589489</v>
+        <v>18.87628881197005</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>28.3813277131222</v>
+        <v>48.7491301773056</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>31.364003531495</v>
+        <v>52.19984413607685</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>10.96256366869146</v>
+        <v>12.87802887275819</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>22.3831831141717</v>
+        <v>36.12954988111579</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>25.54608840929</v>
+        <v>39.91599138187752</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>9.455258785884705</v>
+        <v>5.63332149548901</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>21.33434439571145</v>
+        <v>36.60813647171429</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>24.70773859715226</v>
+        <v>41.98105094627252</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>13.72505481289868</v>
+        <v>9.008279103775319</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>24.71200275061419</v>
+        <v>56.19207500059534</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>8.322566191281691</v>
+        <v>9.825523958742959</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>19.64772971373386</v>
+        <v>28.58658558152788</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>22.75873978295201</v>
+        <v>34.21766576983356</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>6.933661771412826</v>
+        <v>8.60772259397876</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>18.70680505764597</v>
+        <v>40.69167994084748</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>22.02687359185128</v>
+        <v>45.54977376530056</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>11.16660498600755</v>
+        <v>12.40107468888771</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>22.05643493222026</v>
+        <v>56.95517370416727</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>25.13329035268407</v>
+        <v>61.74064867140777</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>25.09486479484769</v>
+        <v>47.34812874296784</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>29.28882247766695</v>
+        <v>55.6931331564605</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>30.75980745513607</v>
+        <v>60.26238405921242</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>17.8157850545422</v>
+        <v>18.80194377099391</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>28.38152898240418</v>
+        <v>43.53196544529672</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>31.36420568729773</v>
+        <v>53.40213241267443</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>10.96274408433328</v>
+        <v>12.36789716008297</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>22.3833762439958</v>
+        <v>33.86462662376107</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>25.54628246386111</v>
+        <v>40.29624401683736</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>9.455434884568888</v>
+        <v>8.059694393950959</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>21.33453360522446</v>
+        <v>34.21399246839042</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>24.70792878005529</v>
+        <v>42.62649860754811</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>13.72523781075409</v>
+        <v>8.444554161928149</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>24.7121978681671</v>
+        <v>51.42775330679902</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>27.83761584775654</v>
+        <v>44.45346892953725</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>27.92141656910072</v>
+        <v>30.15976429096412</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>32.17046441285101</v>
+        <v>43.83051968193925</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>33.67365670693857</v>
+        <v>45.74165803654739</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>20.62478373505527</v>
+        <v>18.43550174722352</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>31.30180603210705</v>
+        <v>33.99673969529604</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>34.32493372528399</v>
+        <v>38.28204772255467</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>18.08740519553215</v>
+        <v>17.39025464500304</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>29.50684177004623</v>
+        <v>31.43523643863056</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>32.67346789789717</v>
+        <v>37.7295498699271</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>16.9531559010944</v>
+        <v>2.667105052086921</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>28.83457908404568</v>
+        <v>20.80806314681891</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>32.21346166694092</v>
+        <v>25.79655609640019</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>21.18747393827416</v>
+        <v>4.251020229027429</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>32.17753734129603</v>
+        <v>41.27956204079183</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>35.30781257399146</v>
+        <v>51.2306552023264</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>35.55554235679697</v>
+        <v>39.98644459874032</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>39.79339922675533</v>
+        <v>54.66884863608695</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>41.29992457956943</v>
+        <v>59.04761464195559</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>28.24630435316462</v>
+        <v>14.87879673717171</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>38.9183234823747</v>
+        <v>37.29317934725609</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>41.94382558367981</v>
+        <v>47.01466445143123</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>27.8376578513739</v>
+        <v>63.8916887648611</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>27.92145520893783</v>
+        <v>59.0414365289985</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>32.17050845189463</v>
+        <v>69.71427512826654</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>33.6737035769615</v>
+        <v>70.20512553922825</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>20.62481207672768</v>
+        <v>29.90487094834901</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>31.30184945279408</v>
+        <v>66.46937995127158</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>34.32498278652817</v>
+        <v>65.85581174000981</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>18.08743276985347</v>
+        <v>21.00747167737554</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>16.95318931923937</v>
+        <v>11.08610981751599</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>28.83462903110251</v>
+        <v>46.91671720923952</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>32.21351792642792</v>
+        <v>49.47886182307707</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>21.1875111184474</v>
+        <v>15.51475421072783</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>32.17758982574024</v>
+        <v>69.0896693473542</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>35.30787092865586</v>
+        <v>75.80058771072086</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>35.55559766390009</v>
+        <v>77.67380836830341</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>39.79345992317156</v>
+        <v>88.73975865400334</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>41.29998809042072</v>
+        <v>90.64921864853653</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>28.24634925814891</v>
+        <v>34.02880524212384</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>38.91838349425291</v>
+        <v>79.07309744747286</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>41.94389119639835</v>
+        <v>82.32365187786837</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>27.83821882974553</v>
+        <v>64.09920445226462</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>27.9220220263437</v>
+        <v>55.51915431811747</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>32.17107125365834</v>
+        <v>65.30388802519039</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>33.6742640183858</v>
+        <v>68.62430494252877</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>20.62538293281269</v>
+        <v>21.2432445684557</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>31.30241209562829</v>
+        <v>61.81049068674903</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>34.32554053967497</v>
+        <v>63.47347402733286</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>18.08798428983504</v>
+        <v>14.79312043940066</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>29.50742792166338</v>
+        <v>42.37171034595696</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>32.67405494006537</v>
+        <v>47.55906697835812</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>16.95375540513986</v>
+        <v>6.948087694491786</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>28.83518599137905</v>
+        <v>44.71050970154494</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>32.21406951151437</v>
+        <v>50.10936768954269</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>21.18807399886598</v>
+        <v>12.25505901671619</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>32.17814429859327</v>
+        <v>67.92363170969176</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>35.30842042159919</v>
+        <v>77.18726111851686</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>35.55615272396322</v>
+        <v>76.49861651497559</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>39.79401097601709</v>
+        <v>86.62463447515142</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>41.30053676774375</v>
+        <v>91.19539854230226</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>28.2469084239864</v>
+        <v>26.82097601272823</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>38.91893443015723</v>
+        <v>76.59756439641959</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>41.94443722505</v>
+        <v>81.8851464207734</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>27.83841482847416</v>
+        <v>62.29695667102411</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>27.9222238788157</v>
+        <v>41.93426130739834</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>32.17127801114236</v>
+        <v>54.94660758085081</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>33.67447124908966</v>
+        <v>62.96224565596515</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>20.6255764423576</v>
+        <v>18.45130370610223</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>31.30261706528651</v>
+        <v>53.80923959995241</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>34.3257464299422</v>
+        <v>61.37502724173692</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>18.08816492882837</v>
+        <v>16.46313995130484</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>29.50762122570604</v>
+        <v>42.06570416004806</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>32.67424922351823</v>
+        <v>51.10536352968049</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>16.95393219081721</v>
+        <v>11.0985981477547</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>28.83537583888037</v>
+        <v>43.7303146760475</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>32.21426039471402</v>
+        <v>53.29515526577788</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>21.18825758559477</v>
+        <v>13.57690084544856</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>32.17833996187532</v>
+        <v>64.73785292797842</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>35.30861702174835</v>
+        <v>78.31772255972226</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>35.55635522955951</v>
+        <v>64.64368657357986</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>39.7942183702144</v>
+        <v>78.70361458859648</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>41.30074465834967</v>
+        <v>89.07713595967178</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>28.24710268144952</v>
+        <v>24.51355274447917</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>38.91914009851871</v>
+        <v>68.86790347785458</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>41.94464386016327</v>
+        <v>81.43404194919651</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>11.65576919501813</v>
+        <v>19.32039807455839</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>23.13659120782889</v>
+        <v>30.88200329001699</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>26.2732675288599</v>
+        <v>32.33360254831848</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>10.28754557753354</v>
+        <v>5.563311740951686</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>22.22377583629099</v>
+        <v>25.55947181359576</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>25.57057829511463</v>
+        <v>25.1496786887231</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>14.58061291603256</v>
+        <v>9.82225352846012</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>25.62164557827422</v>
+        <v>44.72224938257185</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>28.72324396337275</v>
+        <v>44.39852320145184</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>28.67250734806498</v>
+        <v>32.8317102031707</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>32.92431220653413</v>
+        <v>41.17541824849644</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>34.4058209434255</v>
+        <v>41.81226219752648</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>21.27244639858057</v>
+        <v>15.64956465758757</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>31.98822431459107</v>
+        <v>25.49558565759434</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>34.99567839853327</v>
+        <v>31.49672256141582</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>14.16831912184083</v>
+        <v>26.78853778646711</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>25.74428293052397</v>
+        <v>40.02178087146166</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>28.93336053721176</v>
+        <v>40.86449555151475</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>12.67841683363847</v>
+        <v>11.75686592041134</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>24.72031116670711</v>
+        <v>24.88056684525506</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>28.12096618216573</v>
+        <v>26.77272034351588</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>17.00791528634519</v>
+        <v>11.04041728753071</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>28.14579931387598</v>
+        <v>43.14707474439635</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>11.65578146147474</v>
+        <v>18.44329596152508</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>23.13661932842826</v>
+        <v>40.05696708168077</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>26.27330158315007</v>
+        <v>38.34065393773088</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>10.28756359943662</v>
+        <v>7.34322745861007</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>22.22381043534662</v>
+        <v>42.61615211988146</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>25.57061922577774</v>
+        <v>39.81138467036843</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>14.58063466451061</v>
+        <v>13.14061490332824</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>25.62168267738448</v>
+        <v>62.18075278779895</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>28.72328695096871</v>
+        <v>58.94489621834549</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>28.67254701594015</v>
+        <v>59.14877440208289</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>32.92435728138871</v>
+        <v>65.60074520340345</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>34.40586881623592</v>
+        <v>64.22257188411976</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>21.27247558328258</v>
+        <v>23.146666983441</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>31.9882686499958</v>
+        <v>53.39083553037813</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>34.99572835743913</v>
+        <v>53.11434089760255</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>14.16833575352649</v>
+        <v>26.97741674029791</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>25.74431552599846</v>
+        <v>51.05531283960102</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>28.93339915168365</v>
+        <v>49.9342373169803</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>12.67843903669738</v>
+        <v>15.55780442459237</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>24.7203500708889</v>
+        <v>44.87469930667191</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>28.12101150480461</v>
+        <v>45.68365190405549</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>17.00794128555523</v>
+        <v>17.73886536222178</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>28.14584077714479</v>
+        <v>65.03727640898029</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>11.65634446429777</v>
+        <v>12.27621920740441</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>23.13717359321139</v>
+        <v>34.71019344077845</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>26.27385081294576</v>
+        <v>35.07828250363767</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>10.28814151050923</v>
+        <v>3.255250440219211</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>22.22437923175904</v>
+        <v>39.66096212280962</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>25.57118263873777</v>
+        <v>39.53741005804628</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>14.58120926935754</v>
+        <v>9.53398877991415</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>25.62224888618685</v>
+        <v>59.93292464607049</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>28.72384817025554</v>
+        <v>59.12267460935206</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>28.67311424223503</v>
+        <v>57.19673710319026</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>32.92492050191498</v>
+        <v>62.92850432982829</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>34.40642968723306</v>
+        <v>63.93094363667532</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>21.27304692232978</v>
+        <v>14.74471130341521</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>31.98883177606949</v>
+        <v>48.7528149165222</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>34.99628655904084</v>
+        <v>50.31464548731179</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>14.16890065750353</v>
+        <v>19.93258342592432</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>25.74487160701214</v>
+        <v>44.85839624271838</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>28.93395016654334</v>
+        <v>46.33128622204899</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>12.67901917248898</v>
+        <v>10.22453734225391</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>24.72092099614178</v>
+        <v>40.73276747777405</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>28.12157701648875</v>
+        <v>44.77175651804376</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>17.00851810931109</v>
+        <v>13.29597515304229</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>28.14640911616557</v>
+        <v>62.01177429673115</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>11.65652682123768</v>
+        <v>12.49895097928288</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>23.13736871500101</v>
+        <v>33.26980557405955</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>26.27404681248603</v>
+        <v>36.89353690436701</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>10.2883195295135</v>
+        <v>7.677703734146771</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>22.22457040845798</v>
+        <v>39.51445562015854</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>25.57137473853784</v>
+        <v>43.14868397221167</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>14.58139425880585</v>
+        <v>11.62029878644168</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>25.62244604022692</v>
+        <v>58.08724221876417</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>28.72404615863564</v>
+        <v>60.8643022045143</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>28.67331773958234</v>
+        <v>48.60115520927397</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>32.92512890549142</v>
+        <v>56.59918529558178</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>34.40663854321708</v>
+        <v>62.40931787166861</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>21.27324200972968</v>
+        <v>15.82514312473338</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>31.98903834968223</v>
+        <v>44.42598450268639</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>34.99649401883455</v>
+        <v>52.63161841966425</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>14.16908602467745</v>
+        <v>19.58469494917548</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>25.74506987070481</v>
+        <v>42.57039240163147</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>28.93414935252418</v>
+        <v>46.93034347633309</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>12.67920016805276</v>
+        <v>12.71738864808728</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>24.72111529161101</v>
+        <v>38.19731198689689</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>28.12177228274121</v>
+        <v>45.54789749376769</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>17.00870610417956</v>
+        <v>12.963298809038</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>28.14660940622078</v>
+        <v>57.26074125881195</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>31.29723358113231</v>
+        <v>47.41840066880565</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>31.36996257094074</v>
+        <v>35.32576647830152</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>35.67714323433997</v>
+        <v>48.74957085446351</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>37.19099774240469</v>
+        <v>51.59105434612306</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>23.95337644900553</v>
+        <v>19.82319936611321</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>34.78031918995495</v>
+        <v>38.05541952551005</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>37.82864378470199</v>
+        <v>41.48457954094397</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>21.2327947601925</v>
+        <v>20.60931632442094</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>32.80615326178979</v>
+        <v>36.21073543893453</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>35.99863815671937</v>
+        <v>40.00077764909065</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>20.11730920208304</v>
+        <v>2.701916230279291</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>32.16010227747611</v>
+        <v>20.17444353189338</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>35.56593885803487</v>
+        <v>23.77338031650586</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>24.41113133920101</v>
+        <v>4.282601584065528</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>35.55078494339412</v>
+        <v>42.65433683267383</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>38.7059825526523</v>
+        <v>50.23990637862411</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>38.9446235219825</v>
+        <v>41.61292038784271</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>43.23993574466287</v>
+        <v>55.92239386365711</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>44.75734016436994</v>
+        <v>61.7511755713787</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>31.51733277569797</v>
+        <v>12.74746689790035</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>42.33793732255673</v>
+        <v>37.92037175773461</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>45.38838222213937</v>
+        <v>46.61468298048155</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>31.29728101331909</v>
+        <v>67.71926777704212</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>31.37000663814655</v>
+        <v>65.06000638049554</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>35.67719277477369</v>
+        <v>75.54182480359407</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>37.19105013461359</v>
+        <v>76.84517323883031</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>23.95341007106123</v>
+        <v>31.73893241266068</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>34.78036809115205</v>
+        <v>71.38296344528962</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>37.82869837747825</v>
+        <v>69.72792929860324</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>21.23282726589773</v>
+        <v>25.25474315414567</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>32.80620176659345</v>
+        <v>53.14302476310806</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>35.99869263458088</v>
+        <v>53.35974893395905</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>20.11734768898136</v>
+        <v>12.19000772681784</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>32.16015750890946</v>
+        <v>47.63766079684711</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>35.56600045865065</v>
+        <v>48.562496732863</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>24.41117363672429</v>
+        <v>16.48237552845449</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>35.55084274497656</v>
+        <v>71.66639045757489</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>38.70604627741515</v>
+        <v>75.7892526507384</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>38.94468420165747</v>
+        <v>80.32333784985843</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>43.24000188653594</v>
+        <v>91.08028309959201</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>44.75740914155185</v>
+        <v>94.31459056014711</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>31.51738290868786</v>
+        <v>32.5093001160331</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>42.33800275991011</v>
+        <v>80.73071684347636</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>45.38845331089215</v>
+        <v>82.73994160640356</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>31.29784433522462</v>
+        <v>67.66994752300408</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>31.37057585488338</v>
+        <v>61.15951838379692</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>35.67775791959887</v>
+        <v>70.78128359144671</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>37.19161289602796</v>
+        <v>74.94404378685937</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>23.95398340641117</v>
+        <v>22.72953750318552</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>34.7809331081672</v>
+        <v>66.3757383685726</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>37.82925844665267</v>
+        <v>66.99937884530118</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>21.23338126336282</v>
+        <v>18.86907097303054</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>32.80674691984568</v>
+        <v>48.19016923410624</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>35.99923269781382</v>
+        <v>50.68908047798504</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>20.11791638852857</v>
+        <v>7.82647455555411</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>32.16071697106182</v>
+        <v>45.1714062076654</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>35.56655447967738</v>
+        <v>48.97426142442782</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>24.41173908288083</v>
+        <v>12.98867246621969</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>35.55139968026675</v>
+        <v>70.21590719894047</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>38.70659817193445</v>
+        <v>76.93552992839204</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>38.9452417169229</v>
+        <v>78.79699445992824</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>43.24055533900822</v>
+        <v>88.64572873012798</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>44.75796019477249</v>
+        <v>94.5707682487114</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>31.51794460760593</v>
+        <v>24.9747157868546</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>42.33855612488289</v>
+        <v>77.9328144058945</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>45.38900170991521</v>
+        <v>81.97934743518243</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>31.29804550365211</v>
+        <v>66.13121342156245</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>31.37078286362445</v>
+        <v>47.68921320429791</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>35.67796989908578</v>
+        <v>60.50623067149877</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>37.19182535023794</v>
+        <v>69.55996024269777</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>23.95418191532616</v>
+        <v>20.50822351018752</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>34.78114325291427</v>
+        <v>58.67184326894079</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>37.82946951198471</v>
+        <v>65.42218848852173</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>21.23356675391253</v>
+        <v>20.4716127481708</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>32.80694525739121</v>
+        <v>47.62010133352715</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>35.99943201159439</v>
+        <v>54.23775632268416</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>20.11809797680711</v>
+        <v>11.80738201301608</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>32.16091180996906</v>
+        <v>43.80060577710427</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>35.56675035099168</v>
+        <v>52.06572711915925</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>24.41192757107375</v>
+        <v>14.29669756210842</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>35.55160042028152</v>
+        <v>66.78689843625256</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>38.70679984532551</v>
+        <v>78.09856984472742</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>38.94544928341132</v>
+        <v>66.80250154031765</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>43.24076785943895</v>
+        <v>80.55053205642798</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>44.75817321344162</v>
+        <v>92.48823620146223</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>31.51814377112337</v>
+        <v>22.97777737588421</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>42.33876687452529</v>
+        <v>70.23788474706001</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>45.38921342584162</v>
+        <v>81.81512136468794</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>11.3206415584352</v>
+        <v>16.52460179636429</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>22.76608882882736</v>
+        <v>17.61518153656979</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>25.90240710429063</v>
+        <v>20.92938402227824</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>9.946751248824297</v>
+        <v>2.721532829756736</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>21.84528604997456</v>
+        <v>12.15916911860986</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>25.19186255151505</v>
+        <v>12.70594131805759</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>14.2360473948416</v>
+        <v>4.158616172924294</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>25.24212165075163</v>
+        <v>27.09850919735529</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>28.34376754594103</v>
+        <v>28.32689062201066</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>28.29876576458195</v>
+        <v>17.55038658374309</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>32.53661533479637</v>
+        <v>22.05946838984283</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>34.01673915634993</v>
+        <v>22.16325195688603</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>20.92242662711607</v>
+        <v>10.52766907214851</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>31.6076931244896</v>
+        <v>10.9822148896381</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>34.61548794035824</v>
+        <v>18.76218119828939</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>13.81212724455811</v>
+        <v>13.80718760299532</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>25.35329223382718</v>
+        <v>17.88709496011219</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>28.54220775737109</v>
+        <v>20.90518261235161</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>12.315945913725</v>
+        <v>-1.673697829504395</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>24.3207750679436</v>
+        <v>2.083702685940604</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>27.7214129667721</v>
+        <v>5.346303584731313</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>16.64176813336321</v>
+        <v>-4.873131915996201</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>27.74526145826668</v>
+        <v>16.62094267264336</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>11.32065296593053</v>
+        <v>12.13502867133178</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>22.76611604474441</v>
+        <v>23.02496401382961</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>25.90244025645947</v>
+        <v>23.3289278447454</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>9.946768395890384</v>
+        <v>0.9834727175721945</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>21.84531972481062</v>
+        <v>25.41274003207795</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>25.19190256091818</v>
+        <v>23.73861891635746</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>14.23606826776077</v>
+        <v>3.977341279471087</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>25.24215782860427</v>
+        <v>40.79319509435058</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>28.34380961529021</v>
+        <v>39.26176219381517</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>28.29880450667768</v>
+        <v>40.27391129711856</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>32.53665947056066</v>
+        <v>42.86407300394234</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>34.01678609013661</v>
+        <v>40.95529737477057</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>20.92245491737455</v>
+        <v>14.67790678440911</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>31.60773652682442</v>
+        <v>35.27169930578782</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>34.61553696960291</v>
+        <v>36.90986751237057</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>13.8121430067965</v>
+        <v>10.93353019309759</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>25.35332391484747</v>
+        <v>25.63348419233901</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>28.54224546045079</v>
+        <v>26.85605714428439</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>12.31596723179135</v>
+        <v>-0.9202519486874827</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>24.32081303854415</v>
+        <v>18.77598172788464</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>27.72145735931248</v>
+        <v>21.14401881601267</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>16.64179324698173</v>
+        <v>-1.199216367545009</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>27.74530199096573</v>
+        <v>35.25152601933812</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>11.32121626469321</v>
+        <v>5.522064302301711</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>22.76667063833345</v>
+        <v>17.20384769562159</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>25.90298981913702</v>
+        <v>19.62302194951411</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>9.947346606339464</v>
+        <v>-3.536446245883159</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>21.8458888559185</v>
+        <v>21.99715407389004</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>25.19246631262634</v>
+        <v>23.03544968676863</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>14.23664318044129</v>
+        <v>-0.03932264502077842</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>25.24272437788712</v>
+        <v>38.11270234755875</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>28.34437117870533</v>
+        <v>39.04015181731683</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>28.29937207812381</v>
+        <v>37.8979875772346</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>32.53722305081132</v>
+        <v>39.78342849571973</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>34.01734732291622</v>
+        <v>40.26005185654279</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>20.92302657801815</v>
+        <v>5.834469157685358</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>31.60830000298823</v>
+        <v>30.18395536314901</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>34.61609552458482</v>
+        <v>33.70106937634409</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>13.81270823388532</v>
+        <v>3.721990829354407</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>25.35388035134154</v>
+        <v>19.24111034996832</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>28.54279683469414</v>
+        <v>23.09385936054423</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>12.31654769492788</v>
+        <v>-6.393258870799603</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>24.32138432589889</v>
+        <v>14.46646454469817</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>27.7220232369565</v>
+        <v>20.10142578233879</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>16.64237040600331</v>
+        <v>-5.759039003212681</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>27.74587069740618</v>
+        <v>32.08585255022172</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>11.32139852685293</v>
+        <v>5.275210251312611</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>22.76686562591949</v>
+        <v>15.4530915463518</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>25.90318568114139</v>
+        <v>20.99541713765609</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>9.947524538216648</v>
+        <v>0.4805899602218027</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>21.84607990431673</v>
+        <v>21.63627180140002</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>25.19265828071718</v>
+        <v>26.27912750479251</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>14.23682807402334</v>
+        <v>1.566388208147369</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>25.24292139769184</v>
+        <v>35.95664877236769</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>28.34456903006661</v>
+        <v>40.34571924277088</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>28.2995754657412</v>
+        <v>28.90998521410262</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>32.53743132454076</v>
+        <v>33.09708214926803</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>34.01755604565865</v>
+        <v>38.3527278895686</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>20.92322158240141</v>
+        <v>6.321689589565434</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>31.60850645859392</v>
+        <v>25.47733565677373</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>34.61630286380322</v>
+        <v>35.54660857057019</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>13.81289347129655</v>
+        <v>3.242259559973942</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>25.35407844658764</v>
+        <v>16.96774464839856</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>28.54299584884415</v>
+        <v>23.5723323484911</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>12.31672856640384</v>
+        <v>-3.968283935119221</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>24.32157845689635</v>
+        <v>12.03915952251671</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>27.72221833528211</v>
+        <v>20.82764371077073</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>16.64255826805088</v>
+        <v>-6.235227730989298</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>27.74607081698094</v>
+        <v>27.3481332162618</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>30.89694497859362</v>
+        <v>22.73738392791151</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>30.97415719655522</v>
+        <v>9.260522692297766</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>35.26741569192456</v>
+        <v>19.36329695174052</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>36.77994551415665</v>
+        <v>21.39540125960198</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>23.58082921914076</v>
+        <v>2.375124601617696</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>34.37779948343024</v>
+        <v>12.45428872475659</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>37.42662426228177</v>
+        <v>17.57630752748491</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>20.90963512171025</v>
+        <v>15.88248349974671</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>32.44947350032901</v>
+        <v>22.79081547072164</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>35.6412178964635</v>
+        <v>28.46280843501668</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>19.78875619355041</v>
+        <v>-2.119010374846741</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>31.79584579570446</v>
+        <v>6.569851786573476</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>35.20104222516814</v>
+        <v>11.16049428527574</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>24.07875530268439</v>
+        <v>-2.444644032268517</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>35.18528965618691</v>
+        <v>25.8713762504216</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>38.34016935391519</v>
+        <v>34.97633022588508</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>38.58390470267774</v>
+        <v>25.56702383782044</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>42.86551288901224</v>
+        <v>36.51883492586285</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>44.38121920118394</v>
+        <v>41.3527844673232</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>31.1788947148693</v>
+        <v>4.801546895376273</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>41.97054145850866</v>
+        <v>22.13589721532039</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>45.02090954402681</v>
+        <v>32.41806595732331</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>30.89699148372362</v>
+        <v>39.94116418584153</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>30.97420032782588</v>
+        <v>35.89017746524337</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>35.26746428336943</v>
+        <v>43.03131159040646</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>36.77999695764223</v>
+        <v>43.52428033412895</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>23.58086193594362</v>
+        <v>11.40920369137441</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>34.37784744147817</v>
+        <v>42.6764843614921</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>37.42667791570526</v>
+        <v>42.85919659498032</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>20.90966682322233</v>
+        <v>18.84542997970496</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>32.44952115859203</v>
+        <v>37.82454231242741</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>35.6412715293859</v>
+        <v>40.08740203073833</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>19.78879386315402</v>
+        <v>5.737811504188723</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>31.79590016411807</v>
+        <v>32.16056741130569</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>35.20110296468364</v>
+        <v>34.25862415957133</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>24.07879678172937</v>
+        <v>8.16331727592819</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>35.18534659697925</v>
+        <v>53.06629718920351</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>38.34023221995933</v>
+        <v>58.86668726376408</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>38.583964515978</v>
+        <v>62.62208338194154</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>42.8655781520538</v>
+        <v>70.00455780998234</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>44.38128729883339</v>
+        <v>72.23574768978165</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>31.17894401028749</v>
+        <v>23.11446896764943</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>41.97060602261102</v>
+        <v>63.27431503480426</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>45.02097976199562</v>
+        <v>67.01739916399021</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>30.89755517651135</v>
+        <v>39.79066191636028</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>30.97476991800909</v>
+        <v>31.86333080745004</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>35.26802981627434</v>
+        <v>38.16013851575005</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>36.78056010904241</v>
+        <v>41.51968156485236</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>23.58143562154371</v>
+        <v>2.252996150197756</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>34.37841283681657</v>
+        <v>37.51747879683009</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>37.42723836637089</v>
+        <v>40.02476274872112</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>20.91022112886868</v>
+        <v>12.51719236881945</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>32.4500666509944</v>
+        <v>32.90775916163886</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>35.6418119365137</v>
+        <v>37.48691283274775</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>19.78936287356274</v>
+        <v>1.467113971718643</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>31.79645997039216</v>
+        <v>29.76729964373027</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>35.20165733460702</v>
+        <v>34.77754538708049</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>24.07936254726385</v>
+        <v>4.783561991403612</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>35.18590388239933</v>
+        <v>51.71413897804752</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>38.34078446890982</v>
+        <v>60.14805450687976</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>38.58452238645246</v>
+        <v>61.20626111790051</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>42.86613197396438</v>
+        <v>67.69759829273511</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>44.3818387241467</v>
+        <v>72.62477155086191</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>31.17950604228568</v>
+        <v>15.66141629039168</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>41.97115974758029</v>
+        <v>60.5597082910185</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>45.02152852500915</v>
+        <v>66.3839996365206</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>30.89775617163533</v>
+        <v>38.13727746270311</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>30.97497677901478</v>
+        <v>18.31980906671387</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>35.26824162774921</v>
+        <v>27.84883778766953</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>36.78077239174847</v>
+        <v>36.07486750221162</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>23.58163400887222</v>
+        <v>-0.2391202959530609</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>34.37862282562342</v>
+        <v>29.7397626239715</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>37.42744927316998</v>
+        <v>38.27751468006051</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>20.91040651255182</v>
+        <v>13.03486330350492</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>32.45026484318494</v>
+        <v>31.40936210541318</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>35.64201110184725</v>
+        <v>39.9706467607455</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>19.78954435997587</v>
+        <v>4.40621291677294</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>31.79665466722217</v>
+        <v>27.53764937726651</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>35.20185306069452</v>
+        <v>36.85227436668995</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>24.07955092533864</v>
+        <v>4.959995750423499</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>35.1861044748043</v>
+        <v>47.32016272762837</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>38.34098599217268</v>
+        <v>60.21687674270999</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>38.58472982814338</v>
+        <v>48.15493691050307</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>42.866344349141</v>
+        <v>58.58040930816065</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>44.38205159431761</v>
+        <v>69.50040500040592</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>31.1797051067257</v>
+        <v>12.40501968779347</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>41.97137036379974</v>
+        <v>51.81767747088193</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>45.02174010507711</v>
+        <v>65.07294136008099</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>18.33530432128821</v>
+        <v>11.50688538700114</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>29.86628168403496</v>
+        <v>20.12509704975693</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>33.05373685556088</v>
+        <v>25.51102474460526</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>16.95820013438642</v>
+        <v>-2.736817799695221</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>28.9475858226868</v>
+        <v>16.21961289060416</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>32.34812491026456</v>
+        <v>19.4298532237635</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>21.31934419584382</v>
+        <v>1.330457339129989</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>32.40826670631158</v>
+        <v>32.77155652114229</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>35.55986589888661</v>
+        <v>37.54952417807712</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>35.49459466050847</v>
+        <v>22.46437826814843</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>39.77359050287878</v>
+        <v>32.61587624326037</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>41.28073677386679</v>
+        <v>34.39955298422882</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>28.02747774254576</v>
+        <v>9.591797763114183</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>38.78324388050557</v>
+        <v>16.63549963483277</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>41.83671032805363</v>
+        <v>27.35204001073151</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>21.17915713105129</v>
+        <v>14.32199391773869</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>32.80720349290161</v>
+        <v>26.42354152027425</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>36.04743024284393</v>
+        <v>33.02394865540904</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>19.68475021826292</v>
+        <v>-1.723974560309788</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>31.78194101147804</v>
+        <v>11.49310418967135</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>35.2366951639851</v>
+        <v>18.53066246612252</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>24.08401561441405</v>
+        <v>-2.893388829392851</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>35.2718147144445</v>
+        <v>27.57237776693034</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>18.33532774501726</v>
+        <v>12.97822576252539</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>29.8663210738869</v>
+        <v>31.92179607955034</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>33.05378227512663</v>
+        <v>34.63127628688451</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>16.95822934939731</v>
+        <v>1.88635427608585</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>28.94763173443791</v>
+        <v>36.52542403278699</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>32.34817725550441</v>
+        <v>37.98611123683878</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>21.31937724813054</v>
+        <v>8.02963259357443</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>32.40831521813588</v>
+        <v>54.03792373880279</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>35.55992039417492</v>
+        <v>56.41327024440153</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>35.49464570080195</v>
+        <v>53.34922155744309</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>39.77364699311357</v>
+        <v>61.60056680376789</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>41.28079612400988</v>
+        <v>61.56407341267587</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>28.02751817967907</v>
+        <v>21.42289696551807</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>38.78329956149562</v>
+        <v>49.35333372380489</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>41.83677172765007</v>
+        <v>54.24415732977548</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>21.17918523526664</v>
+        <v>17.32851444252057</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>32.80724767518864</v>
+        <v>40.58663816551015</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>36.04748053948139</v>
+        <v>45.76101898172956</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>19.68478393765361</v>
+        <v>5.491165658216229</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>31.78199155415382</v>
+        <v>35.33195467958271</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>35.23675222618573</v>
+        <v>42.00184339476721</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>24.08405324225964</v>
+        <v>7.824910933272374</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>35.27186791761505</v>
+        <v>53.95147489784827</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>18.33589004562675</v>
+        <v>7.407696938879607</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>29.86687460327154</v>
+        <v>27.36310637094885</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>33.05433069897614</v>
+        <v>32.26046999249365</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>16.95880666361567</v>
+        <v>-1.287702695813497</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>28.94819989888557</v>
+        <v>34.65463057133081</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>32.34873996021976</v>
+        <v>38.95392447516588</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>21.31995123448121</v>
+        <v>5.431184834056008</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>32.40888077684681</v>
+        <v>53.03154587763652</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>35.56048089223216</v>
+        <v>57.93884443033841</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>35.49521237015185</v>
+        <v>52.57357585106189</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>39.77420963240488</v>
+        <v>60.03079640643162</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>41.28135636812443</v>
+        <v>62.51984207633802</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>28.02808900341499</v>
+        <v>13.99724333688638</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>38.78386214922742</v>
+        <v>45.92472999309658</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>41.83732932189504</v>
+        <v>52.84004288590282</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>21.17974907417522</v>
+        <v>11.17013211691667</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>32.80780265578368</v>
+        <v>35.46870957002173</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>36.04803038309093</v>
+        <v>43.34723937066636</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>19.68536311031211</v>
+        <v>1.391763183624928</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>31.78256147881393</v>
+        <v>32.59428786001371</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>35.23731666075406</v>
+        <v>42.66542027942066</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>24.08462907990096</v>
+        <v>4.719270926593818</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>35.2724352366676</v>
+        <v>52.49816153977881</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>18.33607914719406</v>
+        <v>4.372142229872988</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>29.86707647849877</v>
+        <v>22.78756363279512</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>33.05453347516259</v>
+        <v>30.54282745103373</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>16.95899140352628</v>
+        <v>0.08345466021637193</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>28.94839780486848</v>
+        <v>31.45715500460929</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>32.34893881266259</v>
+        <v>39.09481918903009</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>21.32014301695981</v>
+        <v>3.8787337450573</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>32.4090847299865</v>
+        <v>47.60913162114372</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>35.56068570136885</v>
+        <v>55.70844634253396</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>35.49542283166554</v>
+        <v>39.63233716161363</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>39.77442502076563</v>
+        <v>49.3697021030024</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>41.28157220388128</v>
+        <v>56.68765138037838</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>28.02829100456939</v>
+        <v>10.7212516987374</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>38.78407563935426</v>
+        <v>37.29915187303556</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>41.83754370983429</v>
+        <v>50.60103080625558</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>21.17994167064014</v>
+        <v>8.618692495413423</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>32.80800815975668</v>
+        <v>31.09431517025058</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>36.04823683432423</v>
+        <v>41.44406932035389</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>19.68555131462334</v>
+        <v>1.875765247933199</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>31.78276299383145</v>
+        <v>28.05167553536833</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>35.2375191718189</v>
+        <v>40.98385540320714</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>24.08482435829366</v>
+        <v>1.757601161666795</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>35.27264281868882</v>
+        <v>45.17387535780981</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>38.47360406572746</v>
+        <v>38.92887203155374</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>38.53227552579007</v>
+        <v>22.46964810675908</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>42.86830844009762</v>
+        <v>37.73938875161872</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>44.40824658115742</v>
+        <v>43.47642436237814</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>31.04766056183084</v>
+        <v>8.415958629929744</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>41.91702696038318</v>
+        <v>27.16217690893535</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>45.01150563767618</v>
+        <v>36.39559252952662</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>28.15406678454569</v>
+        <v>12.17136454569347</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>39.77798440146864</v>
+        <v>26.7715547886965</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>43.02208993517698</v>
+        <v>36.35386044602163</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>27.04638124812874</v>
+        <v>-5.540824110492341</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>39.14274665754071</v>
+        <v>12.42448610285575</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>42.60327657816654</v>
+        <v>20.94141416784498</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>31.40287382941422</v>
+        <v>-4.574072851141583</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>42.59079229991453</v>
+        <v>32.55926474407929</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>45.79690458747389</v>
+        <v>47.07712202456264</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>46.02154110950627</v>
+        <v>34.99109748191987</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>50.34541654800417</v>
+        <v>51.03383385832163</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>51.8881630581219</v>
+        <v>58.78508389070427</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>38.52664074241507</v>
+        <v>6.318148851709164</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>49.38864658488829</v>
+        <v>31.87780141606262</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>52.48562785774328</v>
+        <v>46.66928796876635</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>38.473663332126</v>
+        <v>64.28097350993951</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>38.53233129445219</v>
+        <v>57.399088896226</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>42.86836972640864</v>
+        <v>69.67888084677477</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>44.40831078182818</v>
+        <v>74.10793273489591</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>31.04770576490808</v>
+        <v>25.34612829191405</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>41.91708753859868</v>
+        <v>66.03170328944597</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>45.01157200182462</v>
+        <v>70.68756027461461</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>28.15411061417736</v>
+        <v>20.48604631643795</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>39.77804434065808</v>
+        <v>47.72632362994884</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>43.02215594464752</v>
+        <v>54.24388530901714</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>27.04643111309516</v>
+        <v>8.25190573290109</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>39.1428133848831</v>
+        <v>44.6695993361331</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>42.60334977792071</v>
+        <v>51.20204014321212</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>31.40292760873187</v>
+        <v>12.53206504412944</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>42.59086169056631</v>
+        <v>66.99754029788605</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>45.79697999755776</v>
+        <v>78.57476612059423</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>46.02161334063317</v>
+        <v>79.89879448110986</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>50.34549428440817</v>
+        <v>92.2880395562461</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>51.88824369230028</v>
+        <v>97.63662319989299</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>38.52670230575804</v>
+        <v>32.01624796927317</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>49.38872354550871</v>
+        <v>81.20566500077032</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>52.48571056593829</v>
+        <v>89.79786007086292</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>38.47422556264595</v>
+        <v>65.91810584417664</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>38.53289958243008</v>
+        <v>54.97486437359106</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>42.868933916069</v>
+        <v>66.31733570347231</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>44.40887254181588</v>
+        <v>73.76014723409574</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>31.0482782152238</v>
+        <v>17.63963721313098</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>41.91765164461081</v>
+        <v>62.56296360058121</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>45.01213109101776</v>
+        <v>69.68581147848624</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>28.15466367763115</v>
+        <v>15.0351973299615</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>39.77858852699246</v>
+        <v>43.91990224553959</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>43.02269496922128</v>
+        <v>52.82113493951559</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>27.04699897461634</v>
+        <v>5.17681519316147</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>39.14337197419323</v>
+        <v>43.68450483889256</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>42.60390284845541</v>
+        <v>53.25770941106146</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>31.4034922000982</v>
+        <v>10.42648930963002</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>42.59141773971479</v>
+        <v>67.19121184866529</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>45.79753093349888</v>
+        <v>81.46841150931073</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>46.02217005941073</v>
+        <v>79.94478742538146</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>50.34604691426904</v>
+        <v>91.33905023815814</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>51.8887938773882</v>
+        <v>99.52583829892373</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>38.52726325064484</v>
+        <v>25.84580522181548</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>49.38927613236311</v>
+        <v>80.02558559760539</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>52.48625811695305</v>
+        <v>90.84066993686272</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>38.47443404641169</v>
+        <v>61.38997516883552</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>38.53311404817185</v>
+        <v>38.14463584624585</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>42.86915337550622</v>
+        <v>52.74176066806592</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>44.40909247142923</v>
+        <v>65.08616769738632</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>31.0484841289458</v>
+        <v>12.01647840080866</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>41.91786919981123</v>
+        <v>51.52972490346593</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>45.01234957974459</v>
+        <v>64.48668819860868</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>28.15485635258802</v>
+        <v>13.94585528875464</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>39.77879406019166</v>
+        <v>40.76573068979062</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>43.02290150300129</v>
+        <v>53.39785585926896</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>27.04718774627566</v>
+        <v>6.630710780343431</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>39.14357400758986</v>
+        <v>39.78254515614466</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>42.60410593885327</v>
+        <v>53.38778417229048</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>31.40368793788668</v>
+        <v>8.600662525066976</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>42.59162573789462</v>
+        <v>60.67069659777425</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>45.797739887907</v>
+        <v>79.15800032445998</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>46.02238504974952</v>
+        <v>64.05818708905625</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>50.34626688219971</v>
+        <v>79.44713901509172</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>51.889014337346</v>
+        <v>93.69190863791485</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>38.52746978782841</v>
+        <v>19.89722249377001</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>49.38949426198522</v>
+        <v>68.42238632809531</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>52.48647722495046</v>
+        <v>86.49885049439064</v>
       </c>
     </row>
   </sheetData>
